--- a/2024-2-19ベストヒットランキング.xlsx
+++ b/2024-2-19ベストヒットランキング.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -119,6 +119,12 @@
       <color rgb="00000000"/>
       <sz val="16"/>
     </font>
+    <font>
+      <name val="BIZ UDPゴシック"/>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="16"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -521,6 +527,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -930,7 +945,7 @@
     <row r="3" ht="32.25" customHeight="1" thickBot="1">
       <c r="B3" s="21" t="inlineStr">
         <is>
-          <t>Ｎｏ.2175</t>
+          <t>Ｎｏ.2174</t>
         </is>
       </c>
       <c r="C3" s="35" t="n"/>
@@ -1000,22 +1015,20 @@
       <c r="B6" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="inlineStr">
-        <is>
-          <t>再</t>
-        </is>
+      <c r="C6" s="37" t="n">
+        <v>2</v>
       </c>
       <c r="D6" s="38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>ショコラカタブラ</t>
+          <t>Bling-Bang-Bang-Born</t>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
         <is>
-          <t>Ado</t>
+          <t>Creepy Nuts</t>
         </is>
       </c>
       <c r="I6" s="8" t="n"/>
@@ -1037,19 +1050,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>Bling-Bang-Bang-Born</t>
+          <t>BREMEN</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>Creepy Nuts</t>
+          <t>OWV</t>
         </is>
       </c>
       <c r="I8" s="8" t="n"/>
@@ -1076,16 +1089,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="38" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E10" s="13" t="inlineStr">
         <is>
-          <t>BREMEN</t>
+          <t>唱</t>
         </is>
       </c>
       <c r="F10" s="14" t="inlineStr">
         <is>
-          <t>OWV</t>
+          <t>Ado</t>
         </is>
       </c>
       <c r="I10" s="8" t="n"/>
@@ -1112,16 +1125,16 @@
         <v>5</v>
       </c>
       <c r="D12" s="38" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13" t="inlineStr">
         <is>
-          <t>唱</t>
+          <t>晩餐歌</t>
         </is>
       </c>
       <c r="F12" s="14" t="inlineStr">
         <is>
-          <t>Ado</t>
+          <t>tuki.</t>
         </is>
       </c>
       <c r="I12" s="8" t="n"/>
@@ -1148,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="13" t="inlineStr">
         <is>
-          <t>晩餐歌</t>
+          <t>FREEDOM</t>
         </is>
       </c>
       <c r="F14" s="14" t="inlineStr">
         <is>
-          <t>tuki.</t>
+          <t>西川貴教 with t.komuro</t>
         </is>
       </c>
       <c r="I14" s="8" t="n"/>
@@ -1181,19 +1194,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="38" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E16" s="13" t="inlineStr">
         <is>
-          <t>FREEDOM</t>
+          <t>アイドル</t>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>西川貴教 with t.komuro</t>
+          <t>YOASOBI</t>
         </is>
       </c>
       <c r="I16" s="8" t="n"/>
@@ -1220,16 +1233,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="38" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E18" s="13" t="inlineStr">
         <is>
-          <t>アイドル</t>
+          <t>晴る</t>
         </is>
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
-          <t>YOASOBI</t>
+          <t>ヨルシカ</t>
         </is>
       </c>
       <c r="I18" s="8" t="n"/>
@@ -1256,16 +1269,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="13" t="inlineStr">
         <is>
-          <t>晴る</t>
+          <t>去り際のロマンティクス</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>ヨルシカ</t>
+          <t>See-Saw</t>
         </is>
       </c>
       <c r="I20" s="8" t="n"/>
@@ -1296,12 +1309,12 @@
       </c>
       <c r="E22" s="13" t="inlineStr">
         <is>
-          <t>去り際のロマンティクス</t>
+          <t>幾億光年</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>See-Saw</t>
+          <t>Omoinotake</t>
         </is>
       </c>
       <c r="I22" s="8" t="n"/>
@@ -1332,12 +1345,12 @@
       </c>
       <c r="E24" s="13" t="inlineStr">
         <is>
-          <t>幾億光年</t>
+          <t>水たまり</t>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>Omoinotake</t>
+          <t>Blue Journey</t>
         </is>
       </c>
       <c r="I24" s="8" t="n"/>
@@ -1364,16 +1377,16 @@
         <v>12</v>
       </c>
       <c r="D26" s="38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="13" t="inlineStr">
         <is>
-          <t>水たまり</t>
+          <t>バケツを被れ!</t>
         </is>
       </c>
       <c r="F26" s="14" t="inlineStr">
         <is>
-          <t>Blue Journey</t>
+          <t>HKT48</t>
         </is>
       </c>
       <c r="I26" s="8" t="n"/>
@@ -1400,16 +1413,16 @@
         <v>13</v>
       </c>
       <c r="D28" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" s="13" t="inlineStr">
         <is>
-          <t>バケツを被れ!</t>
+          <t>純烈魂</t>
         </is>
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>HKT48</t>
+          <t>純烈</t>
         </is>
       </c>
     </row>
@@ -1428,16 +1441,16 @@
         <v>14</v>
       </c>
       <c r="D30" s="38" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E30" s="13" t="inlineStr">
         <is>
-          <t>純烈魂</t>
+          <t>ケセラセラ</t>
         </is>
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>純烈</t>
+          <t>Mrs.GREEN APPLE</t>
         </is>
       </c>
     </row>
@@ -1456,16 +1469,16 @@
         <v>15</v>
       </c>
       <c r="D32" s="38" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="13" t="inlineStr">
         <is>
-          <t>ケセラセラ</t>
+          <t>勇者</t>
         </is>
       </c>
       <c r="F32" s="14" t="inlineStr">
         <is>
-          <t>Mrs.GREEN APPLE</t>
+          <t>YOASOBI</t>
         </is>
       </c>
     </row>
@@ -1484,16 +1497,16 @@
         <v>16</v>
       </c>
       <c r="D34" s="38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E34" s="13" t="inlineStr">
         <is>
-          <t>勇者</t>
+          <t>アンビバレント</t>
         </is>
       </c>
       <c r="F34" s="14" t="inlineStr">
         <is>
-          <t>YOASOBI</t>
+          <t>Uru</t>
         </is>
       </c>
     </row>
@@ -1512,16 +1525,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="13" t="inlineStr">
         <is>
-          <t>アンビバレント</t>
+          <t>冬と春</t>
         </is>
       </c>
       <c r="F36" s="14" t="inlineStr">
         <is>
-          <t>Uru</t>
+          <t>back number</t>
         </is>
       </c>
     </row>
@@ -1540,16 +1553,16 @@
         <v>18</v>
       </c>
       <c r="D38" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="13" t="inlineStr">
         <is>
-          <t>冬と春</t>
+          <t>CHEMY×STORY</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>back number</t>
+          <t>BACK-ON × FLOW</t>
         </is>
       </c>
     </row>
@@ -1565,19 +1578,19 @@
         <v>18</v>
       </c>
       <c r="C40" s="37" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D40" s="38" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E40" s="13" t="inlineStr">
         <is>
-          <t>CHEMY×STORY</t>
+          <t>Monopoly</t>
         </is>
       </c>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>BACK-ON × FLOW</t>
+          <t>乃木坂46</t>
         </is>
       </c>
     </row>
@@ -1593,19 +1606,19 @@
         <v>19</v>
       </c>
       <c r="C42" s="37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E42" s="13" t="inlineStr">
         <is>
-          <t>Monopoly</t>
+          <t>ナハトムジーク</t>
         </is>
       </c>
       <c r="F42" s="14" t="inlineStr">
         <is>
-          <t>乃木坂46</t>
+          <t>Mrs.GREEN APPLE</t>
         </is>
       </c>
     </row>
@@ -1617,23 +1630,27 @@
       <c r="F43" s="16" t="n"/>
     </row>
     <row r="44" ht="31.5" customHeight="1">
-      <c r="B44" s="36" t="n">
+      <c r="B44" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="C44" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="D44" s="38" t="n">
-        <v>3</v>
+      <c r="C44" s="43" t="inlineStr">
+        <is>
+          <t>初</t>
+        </is>
+      </c>
+      <c r="D44" s="44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E44" s="13" t="inlineStr">
         <is>
-          <t>ナハトムジーク</t>
+          <t>宝者</t>
         </is>
       </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>Mrs.GREEN APPLE</t>
+          <t>アイナ・ジ・エンド</t>
         </is>
       </c>
     </row>
